--- a/Assets/SDProject/DataTables/Xlsx/CardDesc.xlsx
+++ b/Assets/SDProject/DataTables/Xlsx/CardDesc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SD\SDProject\Assets\SDProject\DataTables\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F379E66-2670-472A-8089-6CC89F99C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763D58F1-C884-4D59-8E96-F66C87950055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="3675" windowWidth="28815" windowHeight="15345" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,12 +60,6 @@
     <t>CardDesc_Base_Atk_Strike_01</t>
   </si>
   <si>
-    <t>CardDesc_Base_Atk_HeavyStrike_00</t>
-  </si>
-  <si>
-    <t>CardDesc_Base_Atk_HeavyStrike_01</t>
-  </si>
-  <si>
     <t>CardDesc_Def_Guard_00</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>단일 대상을 공격하여 피해를 입힌다.</t>
-  </si>
-  <si>
-    <t>단일 대상을 강하게 공격하여 피해를 입힌다.</t>
   </si>
   <si>
     <t>방어 태세를 갖춰 다음 적의 피해를 1회 줄인다.</t>
@@ -548,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6A582-305E-4E47-BE5C-1015E047A912}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -581,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -598,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -612,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -626,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -640,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -654,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -668,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,10 +673,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -724,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -738,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -752,38 +743,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
